--- a/2013136092_이재민_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/2013136092_이재민_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>품목</t>
   </si>
@@ -25,15 +25,9 @@
     <t>링크</t>
   </si>
   <si>
-    <t>모터 쉴드</t>
-  </si>
-  <si>
     <t>건전지</t>
   </si>
   <si>
-    <t>점퍼 케이블</t>
-  </si>
-  <si>
     <t>디바이스마트</t>
   </si>
   <si>
@@ -49,16 +43,7 @@
     <t>초음파 센서 모듈</t>
   </si>
   <si>
-    <t>HC - SR04 [SZH-EK004]</t>
-  </si>
-  <si>
-    <t>배터리 홀더</t>
-  </si>
-  <si>
     <t>SZH-BH006</t>
-  </si>
-  <si>
-    <t>블루투스 모듈</t>
   </si>
   <si>
     <t>과제명</t>
@@ -110,39 +95,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1set</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>L293D [SZH-EK003]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9V 건전지</t>
-  </si>
-  <si>
-    <t>자이로, 가속도 센서 모듈</t>
-  </si>
-  <si>
-    <t>점퍼 케이블(암, 수)</t>
-  </si>
-  <si>
-    <t>HC-06 (DIP) [SZH-EK010]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투명 브레드보드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELB-80T</t>
-  </si>
-  <si>
-    <t>엘레파츠</t>
-  </si>
-  <si>
-    <t>GY-521 [SZH-EK007]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>바디 프레임</t>
@@ -151,13 +104,27 @@
   <si>
     <t>마이크로프로세서 및 실습</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC - SR04 [SZH-EK003]</t>
+  </si>
+  <si>
+    <t>배터리 홀더</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초음파 센서는 재료실 부품 목록에 없고 통일 목록에는 있다고 적혀있는데,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호가 적혀있지 않아 구매신청서에서 제외하지 않았습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,9 +175,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -319,19 +287,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -341,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,12 +306,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -390,26 +339,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,19 +406,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>866776</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>600076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="13" name="그림 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -494,8 +431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8772525" y="2171700"/>
-          <a:ext cx="838200" cy="552450"/>
+          <a:off x="8791575" y="2143125"/>
+          <a:ext cx="828676" cy="581026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,19 +444,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
+      <xdr:colOff>861892</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>609601</xdr:rowOff>
+      <xdr:rowOff>611934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -532,8 +469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8762999" y="2657475"/>
-          <a:ext cx="866775" cy="581026"/>
+          <a:off x="8810625" y="2809875"/>
+          <a:ext cx="804742" cy="554784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -545,19 +482,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>866774</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
+      <xdr:rowOff>535026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPr id="20" name="그림 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -570,160 +507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810625" y="3409950"/>
-          <a:ext cx="800100" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8782050" y="4019550"/>
-          <a:ext cx="857250" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>468351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8791575" y="4657725"/>
+          <a:off x="8801100" y="3467100"/>
           <a:ext cx="819149" cy="449301"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>868415</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8801100" y="6219825"/>
-          <a:ext cx="820790" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>16312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>494822</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8782050" y="6798112"/>
-          <a:ext cx="838200" cy="478510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,7 +775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:L17"/>
+  <dimension ref="E1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" customWidth="1"/>
@@ -1012,356 +797,246 @@
     <col min="16" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:12">
-      <c r="E1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="5:12">
-      <c r="E2" s="6" t="s">
+    <row r="1" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="5:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2013136092</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="5:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="22">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="5:12" ht="18" customHeight="1">
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="22">
-        <v>2013136092</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="5:12" ht="17.25" customHeight="1">
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="5:12">
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="5:12">
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="G7" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="5:12" ht="66" customHeight="1">
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="2">
         <v>42500</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>1</v>
       </c>
       <c r="J7" s="2">
         <v>42500</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="5:12" ht="50.1" customHeight="1">
-      <c r="E8" s="8">
+      <c r="K7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="5:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
-        <v>2700</v>
+        <v>14300</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="2">
-        <v>5400</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="5:12" ht="50.1" customHeight="1">
-      <c r="E9" s="8">
+      <c r="J8" s="9">
+        <v>28600</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="5:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2">
-        <v>14300</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1300</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="11">
-        <v>28600</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="9">
+        <v>2600</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="5:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="5:12" ht="50.1" customHeight="1">
-      <c r="E10" s="8">
+      <c r="H10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1300</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2</v>
-      </c>
-      <c r="J10" s="11">
-        <v>2600</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="5:12" ht="50.1" customHeight="1">
-      <c r="E11" s="8">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="5:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1440</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1440</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="5:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="10">
+        <f>SUM(J7:J11)</f>
+        <v>77640</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="14" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E14" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="11">
-        <v>4000</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11">
-        <v>4000</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="5:12" ht="39.950000000000003" customHeight="1">
-      <c r="E12" s="8">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <v>2500</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="5:12" ht="39.950000000000003" customHeight="1">
-      <c r="E13" s="8">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1440</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1440</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="5:12" ht="39.950000000000003" customHeight="1">
-      <c r="E14" s="8">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8">
-        <v>800</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="8">
-        <v>800</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="5:12" ht="50.1" customHeight="1">
-      <c r="E15" s="18">
-        <v>9</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="19">
-        <v>4500</v>
-      </c>
-      <c r="I15" s="18">
-        <v>2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>9000</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="5:12" ht="39.950000000000003" customHeight="1">
-      <c r="E16" s="8">
-        <v>10</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2500</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2500</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="5:12" ht="16.5" customHeight="1">
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="12">
-        <f>SUM(J7:J16)</f>
-        <v>99340</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1374,18 +1049,13 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" display="http://toolparts.co.kr/front/php/product.php?product_no=68421&amp;main_cate_no=2440&amp;display_group=1&amp;cafe_mkt=naver_ks&amp;mkt_in=Y&amp;ghost_mall_id=naver&amp;ref=naver_open&amp;NaPm=ct%3Ditn3o3rs%7Cci%3Db461682263a94ee5b26aff6a5b0032fa97a9b59b%7Ctr%3Dslsl%7Csn%3D115848%7Chk%3D70b3e4fae7128b617d79d1b0924b3b4107dd566e"/>
-    <hyperlink ref="K8" r:id="rId2" display="http://www.devicemart.co.kr/1247052"/>
-    <hyperlink ref="K9" r:id="rId3" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=8077&amp;category=049024"/>
-    <hyperlink ref="K10" r:id="rId4" display="http://www.devicemart.co.kr/1076851"/>
-    <hyperlink ref="K11" r:id="rId5" display="http://www.devicemart.co.kr/1278922"/>
-    <hyperlink ref="K12" r:id="rId6" display="http://www.devicemart.co.kr/1278968"/>
-    <hyperlink ref="K13" r:id="rId7" display="http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=3694268299&amp;sc.dispNo=016001&amp;sc.dispNo=016001"/>
-    <hyperlink ref="K14" r:id="rId8" display="http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B239250987&amp;frm3=V2"/>
-    <hyperlink ref="K15" r:id="rId9"/>
-    <hyperlink ref="K16" r:id="rId10"/>
+    <hyperlink ref="K11" r:id="rId2" display="http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=3694268299&amp;sc.dispNo=016001&amp;sc.dispNo=016001"/>
+    <hyperlink ref="K8" r:id="rId3" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=8077&amp;category=049024"/>
+    <hyperlink ref="K9" r:id="rId4" display="http://www.devicemart.co.kr/1076851"/>
+    <hyperlink ref="K10" r:id="rId5" display="http://www.devicemart.co.kr/1278968"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>